--- a/app_NPG/STREAMLIT/TANK/output.xlsx
+++ b/app_NPG/STREAMLIT/TANK/output.xlsx
@@ -10205,7 +10205,7 @@
         <v>103</v>
       </c>
       <c r="M232" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10246,7 +10246,7 @@
         <v>103</v>
       </c>
       <c r="M233" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10287,7 +10287,7 @@
         <v>103</v>
       </c>
       <c r="M234" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -17403,7 +17403,7 @@
         <v>103</v>
       </c>
       <c r="M408" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -18574,7 +18574,7 @@
         <v>103</v>
       </c>
       <c r="M437" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="438" spans="1:13">
@@ -21520,7 +21520,7 @@
         <v>103</v>
       </c>
       <c r="M509" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="510" spans="1:13">
@@ -24431,7 +24431,7 @@
         <v>103</v>
       </c>
       <c r="M580" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="581" spans="1:13">
@@ -24472,7 +24472,7 @@
         <v>103</v>
       </c>
       <c r="M581" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="582" spans="1:13">
@@ -24513,7 +24513,7 @@
         <v>103</v>
       </c>
       <c r="M582" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="583" spans="1:13">
@@ -25374,7 +25374,7 @@
         <v>103</v>
       </c>
       <c r="M603" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="604" spans="1:13">
@@ -25415,7 +25415,7 @@
         <v>103</v>
       </c>
       <c r="M604" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="605" spans="1:13">
@@ -25456,7 +25456,7 @@
         <v>103</v>
       </c>
       <c r="M605" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="606" spans="1:13">
@@ -25497,7 +25497,7 @@
         <v>103</v>
       </c>
       <c r="M606" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="607" spans="1:13">
@@ -26481,7 +26481,7 @@
         <v>103</v>
       </c>
       <c r="M630" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="631" spans="1:13">
@@ -31506,7 +31506,7 @@
         <v>103</v>
       </c>
       <c r="M753" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="754" spans="1:13">
@@ -31547,7 +31547,7 @@
         <v>103</v>
       </c>
       <c r="M754" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="755" spans="1:13">
